--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3141578.849670288</v>
+        <v>3137274.509860421</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>116.9725659584295</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>104.1383913127193</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>98.12195560883237</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>128.5351628698065</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>3.07356769508579</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X4" t="n">
-        <v>123.1497511032061</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>130.9356567043874</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2792495146817622</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>141.6802767263309</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>166.0954843114681</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>130.9509640577985</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>31.3084736951617</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>26.20595496784837</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>104.3408745478877</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1220,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908722</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>133.5587268592368</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8390969161451</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115247</v>
+        <v>20.24979976115235</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.15771830809169</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>119.6981910140096</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187878</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>42.71572132711282</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>20.22544352993003</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>90.00079239153429</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.47207866589218</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>55.49215756129669</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.94227792014438</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.8566599330997</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>71.39698738222812</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.4636264596498</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>62.14989839348831</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>38.76543552489401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206815</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406033</v>
       </c>
       <c r="T43" t="n">
-        <v>201.522856038096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>126.9420388308264</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>45.17596778974922</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>683.2875691835745</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C2" t="n">
-        <v>683.2875691835745</v>
+        <v>788.477863438847</v>
       </c>
       <c r="D2" t="n">
-        <v>683.2875691835745</v>
+        <v>788.477863438847</v>
       </c>
       <c r="E2" t="n">
-        <v>416.9099126163966</v>
+        <v>788.477863438847</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917556</v>
@@ -4336,16 +4336,16 @@
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4366,16 +4366,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>949.6652257507525</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>949.6652257507525</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>949.6652257507525</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>683.2875691835745</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>573.2316820178855</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="C3" t="n">
-        <v>474.1185955443175</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="D3" t="n">
-        <v>325.1841858830662</v>
+        <v>609.1154303071141</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G3" t="n">
         <v>165.9467308776107</v>
@@ -4406,28 +4406,28 @@
         <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>503.6022960313624</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>713.6562631339674</v>
+        <v>694.2029851278864</v>
       </c>
       <c r="O3" t="n">
-        <v>883.5948104606972</v>
+        <v>864.1415324546163</v>
       </c>
       <c r="P3" t="n">
-        <v>1000.652410494101</v>
+        <v>981.1991324880198</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="U3" t="n">
-        <v>808.3837902496282</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="V3" t="n">
-        <v>573.2316820178855</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="W3" t="n">
-        <v>573.2316820178855</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="X3" t="n">
-        <v>573.2316820178855</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="Y3" t="n">
-        <v>573.2316820178855</v>
+        <v>758.0498399683654</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309.8226110485074</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="C4" t="n">
-        <v>309.8226110485074</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D4" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E4" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F4" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>700.5939555987218</v>
+        <v>1051.750906172605</v>
       </c>
       <c r="U4" t="n">
-        <v>434.2162990315438</v>
+        <v>785.3732496054271</v>
       </c>
       <c r="V4" t="n">
-        <v>434.2162990315438</v>
+        <v>530.6887613995402</v>
       </c>
       <c r="W4" t="n">
-        <v>434.2162990315438</v>
+        <v>264.3111048323622</v>
       </c>
       <c r="X4" t="n">
-        <v>309.8226110485074</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="Y4" t="n">
-        <v>309.8226110485074</v>
+        <v>36.32155393434482</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.6661507067967</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="C5" t="n">
-        <v>307.6661507067967</v>
+        <v>419.7330060626393</v>
       </c>
       <c r="D5" t="n">
-        <v>307.6661507067967</v>
+        <v>419.7330060626393</v>
       </c>
       <c r="E5" t="n">
-        <v>307.6661507067967</v>
+        <v>419.7330060626393</v>
       </c>
       <c r="F5" t="n">
-        <v>300.7206499575932</v>
+        <v>153.3553494954613</v>
       </c>
       <c r="G5" t="n">
-        <v>287.7568371841487</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.37918061697076</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411526</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="V5" t="n">
-        <v>574.0438072739746</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="W5" t="n">
-        <v>574.0438072739746</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="X5" t="n">
-        <v>307.6661507067967</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.6661507067967</v>
+        <v>686.1106626298174</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477.7964466096705</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C6" t="n">
-        <v>303.3434173285435</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>303.3434173285435</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776108</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957459</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267551</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>694.2029851278864</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560897</v>
+        <v>864.1415324546163</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4676,22 +4676,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>893.4082455801572</v>
+        <v>839.7105578442528</v>
       </c>
       <c r="U6" t="n">
-        <v>893.4082455801572</v>
+        <v>839.7105578442528</v>
       </c>
       <c r="V6" t="n">
-        <v>893.4082455801572</v>
+        <v>671.9373413680223</v>
       </c>
       <c r="W6" t="n">
-        <v>893.4082455801572</v>
+        <v>671.9373413680223</v>
       </c>
       <c r="X6" t="n">
-        <v>685.5567453746244</v>
+        <v>671.9373413680223</v>
       </c>
       <c r="Y6" t="n">
-        <v>477.7964466096705</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.3708114686039</v>
+        <v>795.2412482038039</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>626.3050652758971</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>476.1884258635613</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4755,22 +4755,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640389</v>
+        <v>1023.230799101821</v>
       </c>
       <c r="U7" t="n">
-        <v>563.0088271968609</v>
+        <v>1023.230799101821</v>
       </c>
       <c r="V7" t="n">
-        <v>563.0088271968609</v>
+        <v>1023.230799101821</v>
       </c>
       <c r="W7" t="n">
-        <v>563.0088271968609</v>
+        <v>1023.230799101821</v>
       </c>
       <c r="X7" t="n">
-        <v>335.0192762988436</v>
+        <v>795.2412482038039</v>
       </c>
       <c r="Y7" t="n">
-        <v>335.0192762988436</v>
+        <v>795.2412482038039</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1146.899711288946</v>
+        <v>904.3740435884813</v>
       </c>
       <c r="C8" t="n">
-        <v>777.9371943485338</v>
+        <v>904.3740435884813</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9371943485338</v>
+        <v>904.3740435884813</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9371943485338</v>
+        <v>904.3740435884813</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9512895589262</v>
+        <v>493.3881387988737</v>
       </c>
       <c r="G8" t="n">
-        <v>355.2854715909975</v>
+        <v>77.68191679054092</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467165</v>
+        <v>187.3702251467171</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607408</v>
+        <v>442.1757437607424</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045908</v>
+        <v>795.1862829045929</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995223</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520958</v>
+        <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940591</v>
+        <v>2053.905718940597</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550192</v>
+        <v>2359.356530550199</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661158</v>
+        <v>2540.564622661165</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762129</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858402</v>
+        <v>2351.810676439058</v>
       </c>
       <c r="U8" t="n">
-        <v>1973.496753383972</v>
+        <v>2351.810676439058</v>
       </c>
       <c r="V8" t="n">
-        <v>1642.433866040401</v>
+        <v>2020.747789095487</v>
       </c>
       <c r="W8" t="n">
-        <v>1642.433866040401</v>
+        <v>1667.979133825373</v>
       </c>
       <c r="X8" t="n">
-        <v>1537.039043264757</v>
+        <v>1294.513375564293</v>
       </c>
       <c r="Y8" t="n">
-        <v>1146.899711288946</v>
+        <v>904.3740435884813</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010714</v>
+        <v>929.5097208010795</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199444</v>
+        <v>755.0566915199526</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586931</v>
+        <v>606.1222818587013</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532376</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801226</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993884</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685553</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637183</v>
+        <v>167.3422431396304</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148171</v>
+        <v>613.7598241331825</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482978</v>
+        <v>908.2958075666641</v>
       </c>
       <c r="M9" t="n">
-        <v>1000.417263428535</v>
+        <v>1271.362276040966</v>
       </c>
       <c r="N9" t="n">
-        <v>1634.156546613372</v>
+        <v>1658.446678513535</v>
       </c>
       <c r="O9" t="n">
-        <v>1966.04335660076</v>
+        <v>1990.333488500924</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.078715030384</v>
+        <v>2237.368846930549</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442619</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251692</v>
+        <v>2424.8262802517</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685341</v>
+        <v>2230.816477685349</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.72632175157</v>
+        <v>2002.726321751579</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519828</v>
+        <v>1767.574213519836</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791626</v>
+        <v>1513.336856791634</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586093</v>
+        <v>1305.485356586101</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821139</v>
+        <v>1097.725057821148</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>644.1262021479121</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="C10" t="n">
-        <v>475.1900192200052</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="D10" t="n">
-        <v>325.0733798076694</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="E10" t="n">
-        <v>325.0733798076694</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0733798076694</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="G10" t="n">
-        <v>157.0862549473601</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473601</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380118</v>
+        <v>76.63468308380156</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676562</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.385004336891</v>
+        <v>523.3850043368923</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904022</v>
+        <v>823.8653899904039</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616497</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.787843951765</v>
+        <v>1514.861881826849</v>
       </c>
       <c r="U10" t="n">
-        <v>1412.787843951765</v>
+        <v>1225.74350832149</v>
       </c>
       <c r="V10" t="n">
-        <v>1412.787843951765</v>
+        <v>971.0590201156035</v>
       </c>
       <c r="W10" t="n">
-        <v>1123.370673914805</v>
+        <v>681.6418500786428</v>
       </c>
       <c r="X10" t="n">
-        <v>895.3811230167873</v>
+        <v>453.6522991806255</v>
       </c>
       <c r="Y10" t="n">
-        <v>674.5885438732572</v>
+        <v>232.8597200370954</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.07903472198</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400717</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>365.9405071576786</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>219.0505596597682</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>219.0505596597682</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2443.925817935984</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>803.2707707770323</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>653.1541313646966</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>505.2410377823035</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2313.646285131726</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2313.646285131726</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>2808.971891347485</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>3406.350378974037</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>4033.948342528643</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>580.8993044876688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>580.8993044876688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>434.0093569897584</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>266.8132577046384</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>221.3431781811722</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6028,7 +6028,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6068,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>372.4964262156764</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>867.8220324314351</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3173.601046153952</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4348.133299268587</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>4093.4488110627</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3804.031641025739</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3576.042090127722</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>3355.249510984192</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6208,31 +6208,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6244,10 +6244,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>710.2486053718725</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3044.507496087129</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>2875.571313159222</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159222</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159222</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673936</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018134</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812247</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775286</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>3343.019547877269</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>3122.226968733739</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6545,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6730,16 +6730,16 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429803</v>
@@ -6855,16 +6855,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,67 +6919,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>378.6527890600109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>378.6527890600109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>211.4566897748909</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7165,22 +7165,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7189,22 +7189,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3006.404946868832</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C40" t="n">
-        <v>3006.404946868832</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D40" t="n">
-        <v>2856.288307456496</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>2708.375213874103</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3188.053411699072</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,64 +7399,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192585</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L42" t="n">
-        <v>2876.560776129205</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M42" t="n">
-        <v>2876.560776129205</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N42" t="n">
-        <v>3504.158739683812</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>1993.504105045046</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1704.428878389244</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1704.428878389244</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1415.011708352283</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.022157454266</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.84215317686</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1836.157664970973</v>
       </c>
       <c r="W46" t="n">
-        <v>1560.161572207407</v>
+        <v>1546.740494934012</v>
       </c>
       <c r="X46" t="n">
-        <v>1332.172021309389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.379442165859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544053</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>26.13373767211351</v>
+        <v>45.78351343583208</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8154,10 +8154,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.006563314041</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775173</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,25 +8294,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127284</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>51.53815565544053</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>45.78351343583205</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>54.39745977364801</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>45.18086586458202</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538068</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348504</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>97.57899151911104</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>63.36835372228757</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>125.1956044930012</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>50.2939204546896</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>147.3599015160451</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>230.6923168279475</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.8897022617929</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>181.7279934189951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>215.1260109543629</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>23.83108638657407</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>117.682081788449</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.8192178272008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610413</v>
       </c>
       <c r="T43" t="n">
-        <v>15.88259428919224</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>159.5809595057646</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>180.5336875992879</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>733621.4425819289</v>
+        <v>733621.442581929</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>733621.442581929</v>
+        <v>733621.4425819289</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>738872.7315396063</v>
+        <v>738872.7315396065</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>716622.322133965</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>716622.322133965</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>716622.322133965</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>716622.3221339649</v>
+        <v>716622.322133965</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312475</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287557</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.274728755</v>
-      </c>
       <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="I2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="K2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287555</v>
@@ -26349,13 +26349,13 @@
         <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580775</v>
+        <v>390680.0076580794</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060695</v>
+        <v>507909.2320606929</v>
       </c>
       <c r="F3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101722</v>
+        <v>95270.23779101767</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954695</v>
+        <v>132717.9756954689</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501122</v>
+        <v>140465.2517501116</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179343</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26441,25 +26441,25 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="L4" t="n">
         <v>11167.03225179356</v>
       </c>
-      <c r="K4" t="n">
-        <v>11167.03225179352</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179351</v>
-      </c>
       <c r="M4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179361</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.0322517936</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179362</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567883</v>
+        <v>92902.867575679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-275951.6007832314</v>
       </c>
       <c r="C6" t="n">
-        <v>404136.3798079615</v>
+        <v>404136.3798079621</v>
       </c>
       <c r="D6" t="n">
-        <v>94363.42164737958</v>
+        <v>94363.42164737816</v>
       </c>
       <c r="E6" t="n">
-        <v>86054.4805923602</v>
+        <v>85707.10133800517</v>
       </c>
       <c r="F6" t="n">
-        <v>593963.712653055</v>
+        <v>593616.3333986981</v>
       </c>
       <c r="G6" t="n">
-        <v>593963.7126530546</v>
+        <v>593616.333398698</v>
       </c>
       <c r="H6" t="n">
-        <v>593963.712653055</v>
+        <v>593616.3333986977</v>
       </c>
       <c r="I6" t="n">
-        <v>593963.7126530549</v>
+        <v>593616.3333986978</v>
       </c>
       <c r="J6" t="n">
-        <v>524964.5582339409</v>
+        <v>524617.1789795839</v>
       </c>
       <c r="K6" t="n">
-        <v>593963.7126530547</v>
+        <v>593616.333398698</v>
       </c>
       <c r="L6" t="n">
-        <v>498693.4748620376</v>
+        <v>498346.0956076803</v>
       </c>
       <c r="M6" t="n">
-        <v>461245.7369575853</v>
+        <v>460898.3577032288</v>
       </c>
       <c r="N6" t="n">
-        <v>593963.712653055</v>
+        <v>593616.3333986978</v>
       </c>
       <c r="O6" t="n">
-        <v>593963.712653055</v>
+        <v>593616.3333986977</v>
       </c>
       <c r="P6" t="n">
-        <v>593963.7126530549</v>
+        <v>593616.333398698</v>
       </c>
     </row>
   </sheetData>
@@ -26709,25 +26709,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>6.436047097567693e-14</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627815</v>
+        <v>933.7024595627832</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26776,10 +26776,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
     </row>
     <row r="4">
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856941</v>
+        <v>640.1406900856962</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,37 +26916,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>6.436047097567693e-14</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933034</v>
+        <v>319.6474457933049</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788924</v>
+        <v>434.2730407788905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.426810084188</v>
+        <v>376.42681008419</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139545</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084188</v>
+        <v>376.4268100841898</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139545</v>
+        <v>532.567598013952</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084188</v>
+        <v>376.42681008419</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139545</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695013</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442037</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>197.2210666708385</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>223.6138671574155</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>74.58654337948337</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,10 +27469,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>66.30582471507026</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,7 +27557,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.1407781844801</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X4" t="n">
-        <v>102.5599042858311</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695013</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>281.8985179413227</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.0273700322154</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,22 +27748,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>53.16071085854585</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>66.70510283795713</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>36.2958570408293</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>191.9058721844042</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>274.8275192524521</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465056</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>265.3902261305814</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27940,13 +27940,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.776449164528771</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.776449164536871</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.6742618738456</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>101.0532974963291</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30459,19 +30459,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.478997154632013e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30753,7 +30753,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350879</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,22 +31436,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582787</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885551</v>
+        <v>3.753577726885558</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546666</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972528</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763183</v>
+        <v>477.4691627763192</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354921</v>
+        <v>592.3427171354932</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359931</v>
+        <v>659.0954050359942</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525066</v>
+        <v>669.7602577525079</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307883</v>
+        <v>632.4356192307896</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983013</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542123</v>
+        <v>405.3441667542131</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864747</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140458</v>
+        <v>85.53465245140474</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508441</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.39634732035141</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902626</v>
+        <v>69.14683309026273</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502163</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571274</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617159</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152206</v>
+        <v>522.3360580152216</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519076</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947584</v>
+        <v>383.5050724947591</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463698</v>
+        <v>256.3629847463703</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366394</v>
+        <v>37.30405581366401</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133924</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.68372574675256</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415872</v>
+        <v>50.63422518415882</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749012</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.9316641023126</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462346</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046251</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708728</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307402</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658773</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794274</v>
+        <v>7.194100917942754</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865032</v>
+        <v>0.09183958618650337</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>301.6445156724557</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>714.9328157424943</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>207.9390110516846</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>266.6561007250664</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,10 +32788,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>419.3361492447676</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
-        <v>423.9151577118742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,7 +33274,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33283,10 +33283,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,37 +33499,37 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,37 +33736,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,40 +33970,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>499.3768644016574</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O42" t="n">
-        <v>677.7372574190219</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321076</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.7506156686099</v>
+        <v>74.40039143232849</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204529</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827497113</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763041</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>245.548359657229</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>164.0235134695731</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649636</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496811</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705666</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313377</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655048</v>
+        <v>356.576302165506</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087203</v>
+        <v>428.7491718087215</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559157</v>
+        <v>440.347194155917</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091016</v>
+        <v>402.3374078091028</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430317</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797628</v>
+        <v>183.0384768797636</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234258</v>
+        <v>20.20013907234301</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127557</v>
+        <v>117.3040282149239</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758574</v>
+        <v>450.9268494884365</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772532</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>411.9146724042796</v>
+        <v>366.7338065396985</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856941</v>
+        <v>390.9943459318883</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074632</v>
+        <v>335.2392020074641</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804282</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961973</v>
+        <v>326.4584983961979</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783555</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873298</v>
+        <v>25.6802301787332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.9141240093286</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.5155410641532</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254632</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186648</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228561</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>159.0482712280113</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>572.7987818204761</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>81.10138438501788</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>128.8146617507074</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>281.4947102704086</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
-        <v>285.360777932</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,7 +36922,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317163</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>368.035152318324</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O42" t="n">
-        <v>535.1410129745775</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876631</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3137274.509860421</v>
+        <v>3139035.040163205</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8340308.187655606</v>
+        <v>8340308.187655608</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>208.2085323732921</v>
       </c>
       <c r="C2" t="n">
         <v>263.7138800015063</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015063</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>116.9725659584295</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>128.5351628698065</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>7.646551099754249</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>3.07356769508579</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>17.28688718947271</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C5" t="n">
         <v>263.7138800015063</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>212.5689651179052</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>263.7138800015063</v>
-      </c>
-      <c r="G5" t="n">
-        <v>130.9356567043874</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>152.7676931992223</v>
-      </c>
-      <c r="T5" t="n">
-        <v>212.2897156032232</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>21.7703497861775</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>166.0954843114681</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888208</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>78.45460733270707</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>31.3084736951617</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>26.20595496784837</v>
+        <v>194.9747007711134</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1220,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>155.8686312908722</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>133.5587268592359</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115235</v>
+        <v>20.24979976115247</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>119.6981910140096</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>90.06308666747081</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.006892987834117</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>190.821537608521</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>91.89996056624759</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>211.1474991249032</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>179.2499669408062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>106.3048907942291</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.14989839348831</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>87.61360486368905</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206815</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>25.73194049497363</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406033</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>45.17596778974922</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>690.2330699327782</v>
       </c>
       <c r="C2" t="n">
-        <v>788.477863438847</v>
+        <v>423.8554133656002</v>
       </c>
       <c r="D2" t="n">
-        <v>788.477863438847</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E2" t="n">
-        <v>788.477863438847</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F2" t="n">
-        <v>522.1002068716689</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>255.7225503044908</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
@@ -4330,22 +4330,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946894</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>758.0498399683654</v>
+        <v>444.9687112326096</v>
       </c>
       <c r="C3" t="n">
-        <v>758.0498399683654</v>
+        <v>270.5156819514826</v>
       </c>
       <c r="D3" t="n">
-        <v>609.1154303071141</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4421,13 +4421,13 @@
         <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>694.2029851278864</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>864.1415324546163</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>981.1991324880198</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166548</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>758.0498399683654</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>758.0498399683654</v>
+        <v>1028.795847223164</v>
       </c>
       <c r="V3" t="n">
-        <v>758.0498399683654</v>
+        <v>1028.795847223164</v>
       </c>
       <c r="W3" t="n">
-        <v>758.0498399683654</v>
+        <v>1028.795847223164</v>
       </c>
       <c r="X3" t="n">
-        <v>758.0498399683654</v>
+        <v>820.9443470176316</v>
       </c>
       <c r="Y3" t="n">
-        <v>758.0498399683654</v>
+        <v>613.1840482526777</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434482</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1051.750906172605</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>785.3732496054271</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>530.6887613995402</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="W4" t="n">
-        <v>264.3111048323622</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="X4" t="n">
-        <v>36.32155393434482</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434482</v>
+        <v>816.6014386509063</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>686.1106626298174</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="C5" t="n">
-        <v>419.7330060626393</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="D5" t="n">
-        <v>419.7330060626393</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="E5" t="n">
-        <v>419.7330060626393</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="F5" t="n">
-        <v>153.3553494954613</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G5" t="n">
         <v>21.0971104001205</v>
@@ -4567,22 +4567,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298174</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>686.1106626298174</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>686.1106626298174</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>686.1106626298174</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>686.1106626298174</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y5" t="n">
-        <v>686.1106626298174</v>
+        <v>788.477863438847</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503.7220043479542</v>
+        <v>217.5403919905177</v>
       </c>
       <c r="C6" t="n">
-        <v>329.2689750668272</v>
+        <v>43.0873627093907</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>43.0873627093907</v>
       </c>
       <c r="E6" t="n">
         <v>21.0971104001205</v>
@@ -4649,19 +4649,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N6" t="n">
-        <v>694.2029851278864</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O6" t="n">
-        <v>864.1415324546163</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789494</v>
@@ -4676,22 +4676,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>839.7105578442528</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>839.7105578442528</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>671.9373413680223</v>
+        <v>801.3675279810725</v>
       </c>
       <c r="W6" t="n">
-        <v>671.9373413680223</v>
+        <v>801.3675279810725</v>
       </c>
       <c r="X6" t="n">
-        <v>671.9373413680223</v>
+        <v>593.5160277755397</v>
       </c>
       <c r="Y6" t="n">
-        <v>671.9373413680223</v>
+        <v>385.7557290105858</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.2412482038039</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="C7" t="n">
-        <v>626.3050652758971</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>476.1884258635613</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>328.2753322811682</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>328.2753322811682</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
         <v>36.32155393434482</v>
@@ -4734,13 +4734,13 @@
         <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227051</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075547</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>975.6084418921795</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>975.6084418921795</v>
       </c>
       <c r="T7" t="n">
-        <v>1023.230799101821</v>
+        <v>975.6084418921795</v>
       </c>
       <c r="U7" t="n">
-        <v>1023.230799101821</v>
+        <v>709.2307853250014</v>
       </c>
       <c r="V7" t="n">
-        <v>1023.230799101821</v>
+        <v>709.2307853250014</v>
       </c>
       <c r="W7" t="n">
-        <v>1023.230799101821</v>
+        <v>709.2307853250014</v>
       </c>
       <c r="X7" t="n">
-        <v>795.2412482038039</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="Y7" t="n">
-        <v>795.2412482038039</v>
+        <v>481.2412344269841</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>904.3740435884813</v>
+        <v>1783.823588302842</v>
       </c>
       <c r="C8" t="n">
-        <v>904.3740435884813</v>
+        <v>1414.86107136243</v>
       </c>
       <c r="D8" t="n">
-        <v>904.3740435884813</v>
+        <v>1056.59537275568</v>
       </c>
       <c r="E8" t="n">
-        <v>904.3740435884813</v>
+        <v>670.8071201574357</v>
       </c>
       <c r="F8" t="n">
-        <v>493.3881387988737</v>
+        <v>259.8212153678282</v>
       </c>
       <c r="G8" t="n">
-        <v>77.68191679054092</v>
+        <v>248.1553973998994</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467171</v>
+        <v>187.3702251467164</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607424</v>
+        <v>442.1757437607407</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045929</v>
+        <v>795.1862829045904</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995223</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.59168520958</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940597</v>
+        <v>2053.90571894059</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550199</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661165</v>
+        <v>2540.564622661157</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="T8" t="n">
-        <v>2351.810676439058</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="U8" t="n">
-        <v>2351.810676439058</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="V8" t="n">
-        <v>2020.747789095487</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="W8" t="n">
-        <v>1667.979133825373</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="X8" t="n">
-        <v>1294.513375564293</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="Y8" t="n">
-        <v>904.3740435884813</v>
+        <v>2170.423428366964</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010795</v>
+        <v>929.5097208010704</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199526</v>
+        <v>755.0566915199435</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587013</v>
+        <v>606.1222818586922</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532367</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801217</v>
       </c>
       <c r="G9" t="n">
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>71.66559839993882</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="J9" t="n">
-        <v>167.3422431396304</v>
+        <v>113.4887579637183</v>
       </c>
       <c r="K9" t="n">
-        <v>613.7598241331825</v>
+        <v>298.085754314817</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666641</v>
+        <v>592.6217377482976</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.362276040966</v>
+        <v>1208.393778287024</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513535</v>
+        <v>1842.133061471861</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500924</v>
+        <v>2174.01987145925</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930549</v>
+        <v>2421.055229888874</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342785</v>
+        <v>2536.272628442618</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342785</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.8262802517</v>
+        <v>2424.826280251691</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685349</v>
+        <v>2230.81647768534</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751579</v>
+        <v>2002.726321751569</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519836</v>
+        <v>1767.574213519827</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791634</v>
+        <v>1513.336856791625</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586101</v>
+        <v>1305.485356586092</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821148</v>
+        <v>1097.725057821139</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.2112552068557</v>
+        <v>370.2640775470982</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2112552068557</v>
+        <v>201.3278946191912</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068557</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380156</v>
+        <v>76.63468308380114</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676569</v>
+        <v>248.2500215676561</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368923</v>
+        <v>523.3850043368909</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904039</v>
+        <v>823.865389990402</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616497</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="T10" t="n">
-        <v>1514.861881826849</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="U10" t="n">
-        <v>1225.74350832149</v>
+        <v>1544.796330661733</v>
       </c>
       <c r="V10" t="n">
-        <v>971.0590201156035</v>
+        <v>1290.111842455846</v>
       </c>
       <c r="W10" t="n">
-        <v>681.6418500786428</v>
+        <v>1000.694672418885</v>
       </c>
       <c r="X10" t="n">
-        <v>453.6522991806255</v>
+        <v>772.705121520868</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8597200370954</v>
+        <v>551.9125423773379</v>
       </c>
     </row>
     <row r="11">
@@ -5032,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>577.8620388433919</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>408.925855915485</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2261.070983590888</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2041.469518613829</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1752.394291958027</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1497.70980375214</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.292633715179</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>980.3030828171618</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>759.5105036736317</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,19 +5357,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5718,7 +5718,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5983,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6308,16 +6308,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>816.1129388984</v>
       </c>
     </row>
     <row r="32">
@@ -6682,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,28 +6694,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6855,16 +6855,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6928,46 +6928,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7074,34 +7074,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7159,25 +7159,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,16 +7192,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>632.7243904253733</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253733</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1412.248478625014</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7402,61 +7402,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192585</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143763</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797183</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2420.971224494428</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2238.116390149333</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143763</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832662</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832662</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.84215317686</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970973</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934012</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544053</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127267</v>
       </c>
       <c r="Q3" t="n">
-        <v>45.78351343583208</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446527</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775173</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544053</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>45.78351343583205</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.39745977364801</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.2581536004306</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538066</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348504</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>63.36835372228757</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>27.76311574357379</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>73.62417772602126</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>6.257951202385016</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>119.404764594808</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.682081788449</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>198.909393472902</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012171</v>
+        <v>40.64330621514806</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610413</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>180.5336875992879</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>733621.4425819289</v>
+        <v>733621.442581929</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>738872.7315396065</v>
+        <v>738872.7315396063</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>716622.3221339649</v>
+        <v>716622.322133965</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>716622.3221339649</v>
+        <v>716622.322133965</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>716622.322133965</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312481</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312482</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="I2" t="n">
-        <v>706253.2747287552</v>
-      </c>
       <c r="J2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580794</v>
+        <v>390680.0076580771</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606929</v>
+        <v>507909.232060695</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911433</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101767</v>
+        <v>95270.23779101715</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954689</v>
+        <v>132717.9756954695</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501116</v>
+        <v>140465.2517501122</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26432,13 +26432,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26447,19 +26447,19 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179361</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.0322517936</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179362</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.867575679</v>
+        <v>92902.86757567881</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-275951.6007832314</v>
       </c>
       <c r="C6" t="n">
-        <v>404136.3798079621</v>
+        <v>404136.3798079619</v>
       </c>
       <c r="D6" t="n">
-        <v>94363.42164737816</v>
+        <v>94363.42164737995</v>
       </c>
       <c r="E6" t="n">
-        <v>85707.10133800517</v>
+        <v>86019.74266692396</v>
       </c>
       <c r="F6" t="n">
-        <v>593616.3333986981</v>
+        <v>593928.974727619</v>
       </c>
       <c r="G6" t="n">
-        <v>593616.333398698</v>
+        <v>593928.9747276192</v>
       </c>
       <c r="H6" t="n">
-        <v>593616.3333986977</v>
+        <v>593928.9747276191</v>
       </c>
       <c r="I6" t="n">
-        <v>593616.3333986978</v>
+        <v>593928.9747276193</v>
       </c>
       <c r="J6" t="n">
-        <v>524617.1789795839</v>
+        <v>524929.8203085045</v>
       </c>
       <c r="K6" t="n">
-        <v>593616.333398698</v>
+        <v>593928.9747276193</v>
       </c>
       <c r="L6" t="n">
-        <v>498346.0956076803</v>
+        <v>498658.736936602</v>
       </c>
       <c r="M6" t="n">
-        <v>460898.3577032288</v>
+        <v>461210.9990321497</v>
       </c>
       <c r="N6" t="n">
-        <v>593616.3333986978</v>
+        <v>593928.9747276192</v>
       </c>
       <c r="O6" t="n">
-        <v>593616.3333986977</v>
+        <v>593928.9747276187</v>
       </c>
       <c r="P6" t="n">
-        <v>593616.333398698</v>
+        <v>593928.9747276192</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627832</v>
+        <v>933.7024595627814</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26776,10 +26776,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856962</v>
+        <v>640.1406900856939</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933049</v>
+        <v>319.6474457933031</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788905</v>
+        <v>434.2730407788923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.42681008419</v>
+        <v>376.4268100841877</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139522</v>
+        <v>532.5675980139545</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015065</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841877</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013952</v>
+        <v>532.5675980139545</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.42681008419</v>
+        <v>376.4268100841877</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139522</v>
+        <v>532.5675980139545</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>174.5253092901885</v>
       </c>
       <c r="C2" t="n">
         <v>101.5590117695013</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.9691616191767</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442037</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>197.2210666708385</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>66.30582471507026</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>218.2079364038004</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1407781844801</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117124</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>234.8507561343553</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619743</v>
       </c>
       <c r="C5" t="n">
         <v>101.5590117695013</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>142.1140765027778</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>281.8985179413227</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,10 +27700,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.8747306692235</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27748,22 +27748,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>66.70510283795713</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>49.04999555095685</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>191.9058721844042</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>274.8275192524521</v>
+        <v>106.058773449187</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465031</v>
+        <v>65.76608425465059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27940,13 +27940,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.776449164528771</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.77644916453778</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,10 +28028,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>101.0532974963291</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>196.1641031028336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30459,19 +30459,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.478997154632013e-12</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30753,7 +30753,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885558</v>
+        <v>3.753577726885551</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546673</v>
+        <v>38.44132789546666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972534</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763192</v>
+        <v>477.4691627763182</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354932</v>
+        <v>592.3427171354921</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359942</v>
+        <v>659.0954050359929</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525079</v>
+        <v>669.7602577525065</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307896</v>
+        <v>632.4356192307883</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983022</v>
+        <v>539.7691690983012</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542131</v>
+        <v>405.3441667542123</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864751</v>
+        <v>235.7856768864747</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140474</v>
+        <v>85.53465245140457</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508446</v>
+        <v>0.300286218150844</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00834113943693</v>
+        <v>2.008341139436926</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035141</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026273</v>
+        <v>69.1468330902626</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079426</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502169</v>
+        <v>324.3030514502163</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571282</v>
+        <v>436.0654741571274</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617168</v>
+        <v>508.8678404617158</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152216</v>
+        <v>522.3360580152206</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519085</v>
+        <v>477.8354464519076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947591</v>
+        <v>383.5050724947583</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463703</v>
+        <v>256.3629847463698</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366401</v>
+        <v>37.30405581366393</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133938</v>
+        <v>8.095024154133922</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68372574675256</v>
+        <v>1.683725746752556</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415882</v>
+        <v>50.63422518415872</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954057</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772519</v>
+        <v>195.6183185772515</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490124</v>
+        <v>250.3240987490119</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023126</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046255</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.6389757708727</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307417</v>
+        <v>75.70643221307402</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658778</v>
+        <v>29.34274778658773</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942754</v>
+        <v>7.194100917942739</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650337</v>
+        <v>0.09183958618650319</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>575.5951359912046</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071782</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565776</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34789,16 +34789,16 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015063</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q3" t="n">
-        <v>74.40039143232849</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966408</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827497113</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659563</v>
@@ -35026,13 +35026,13 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015063</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>164.0235134695731</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649641</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705671</v>
+        <v>137.5343130705665</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313386</v>
+        <v>257.3793117313377</v>
       </c>
       <c r="L8" t="n">
-        <v>356.576302165506</v>
+        <v>356.5763021655048</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087215</v>
+        <v>428.7491718087202</v>
       </c>
       <c r="N8" t="n">
-        <v>440.347194155917</v>
+        <v>440.3471941559156</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091028</v>
+        <v>402.3374078091016</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430327</v>
+        <v>308.5361733430316</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797636</v>
+        <v>183.0384768797628</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234301</v>
+        <v>20.20013907234255</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.3040282149239</v>
+        <v>62.90656844127557</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884365</v>
+        <v>186.4616124758573</v>
       </c>
       <c r="L9" t="n">
-        <v>297.511094377254</v>
+        <v>297.5110943772532</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396985</v>
+        <v>621.9919601401281</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318883</v>
+        <v>640.1406900856939</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074641</v>
+        <v>335.2392020074631</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804288</v>
+        <v>249.5306650804281</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961979</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783554</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6802301787332</v>
+        <v>25.68023017873296</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093286</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641532</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.7881314254631</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186652</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357666</v>
+        <v>200.9175350357662</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228587</v>
+        <v>54.82702814228561</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>433.4611020691863</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317163</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238449</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121332</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
